--- a/Dates 2.xlsx
+++ b/Dates 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elijah Farmer\Documents\Final project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korab\Desktop\data science\Git Projects\DFT_Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D291026-E8C3-4870-A2D8-16C552425D42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A50F8B7-9918-4FF4-89C3-79FAF4586292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A649391-E80F-4DB5-9DEE-2C1E646F8BD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1A649391-E80F-4DB5-9DEE-2C1E646F8BD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>San Diego</t>
   </si>
   <si>
-    <t>San Francisco</t>
-  </si>
-  <si>
     <t>San Joaquin</t>
   </si>
   <si>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>San_Francisco</t>
   </si>
 </sst>
 </file>
@@ -311,7 +311,7 @@
     <tableColumn id="36" xr3:uid="{51170106-DFBE-402D-BF29-5FD193271129}" name="San Benito"/>
     <tableColumn id="37" xr3:uid="{0113A648-50DF-4CB8-80DA-EDAAE50594DC}" name="San Bernardino"/>
     <tableColumn id="38" xr3:uid="{AF078ABD-4461-4CEB-87AF-4A45989C874B}" name="San Diego"/>
-    <tableColumn id="39" xr3:uid="{FD0E6914-A6EC-4477-A361-A4E88AACC005}" name="San Francisco"/>
+    <tableColumn id="39" xr3:uid="{FD0E6914-A6EC-4477-A361-A4E88AACC005}" name="San_Francisco"/>
     <tableColumn id="40" xr3:uid="{AC8801FB-E5C2-4F89-8F97-B42EF618CC9D}" name="San Joaquin"/>
     <tableColumn id="41" xr3:uid="{C6174197-4904-4042-BBFB-8981FF26C433}" name="San Luis Obispo"/>
     <tableColumn id="42" xr3:uid="{8ADE2FA0-34F7-478C-AC33-EB861E458C5C}" name="San Mateo"/>
@@ -636,53 +636,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A15496-5AA4-46AE-A62B-962E3E2AD4FC}">
   <dimension ref="A1:BG109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BG109"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" customWidth="1"/>
-    <col min="23" max="23" width="10.77734375" customWidth="1"/>
-    <col min="24" max="24" width="12.5546875" customWidth="1"/>
-    <col min="25" max="25" width="9.33203125" customWidth="1"/>
-    <col min="28" max="28" width="11.21875" customWidth="1"/>
-    <col min="30" max="30" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" customWidth="1"/>
     <col min="31" max="31" width="9" customWidth="1"/>
     <col min="33" max="33" width="9" customWidth="1"/>
-    <col min="34" max="34" width="10.44140625" customWidth="1"/>
+    <col min="34" max="34" width="10.42578125" customWidth="1"/>
     <col min="35" max="35" width="13" customWidth="1"/>
-    <col min="36" max="36" width="11.88671875" customWidth="1"/>
-    <col min="37" max="37" width="15.77734375" customWidth="1"/>
-    <col min="38" max="38" width="11.21875" customWidth="1"/>
-    <col min="39" max="39" width="14.21875" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" customWidth="1"/>
+    <col min="37" max="37" width="15.7109375" customWidth="1"/>
+    <col min="38" max="38" width="11.28515625" customWidth="1"/>
+    <col min="39" max="39" width="14.28515625" customWidth="1"/>
     <col min="40" max="40" width="13" customWidth="1"/>
     <col min="41" max="41" width="16" customWidth="1"/>
     <col min="42" max="42" width="12" customWidth="1"/>
-    <col min="43" max="43" width="14.6640625" customWidth="1"/>
-    <col min="44" max="44" width="12.33203125" customWidth="1"/>
-    <col min="45" max="45" width="11.77734375" customWidth="1"/>
-    <col min="48" max="48" width="9.77734375" customWidth="1"/>
-    <col min="50" max="50" width="9.88671875" customWidth="1"/>
-    <col min="51" max="51" width="11.21875" customWidth="1"/>
-    <col min="53" max="53" width="9.6640625" customWidth="1"/>
-    <col min="56" max="56" width="11.44140625" customWidth="1"/>
-    <col min="57" max="57" width="9.6640625" customWidth="1"/>
+    <col min="43" max="43" width="14.7109375" customWidth="1"/>
+    <col min="44" max="44" width="12.28515625" customWidth="1"/>
+    <col min="45" max="45" width="11.7109375" customWidth="1"/>
+    <col min="48" max="48" width="9.7109375" customWidth="1"/>
+    <col min="50" max="50" width="9.85546875" customWidth="1"/>
+    <col min="51" max="51" width="11.28515625" customWidth="1"/>
+    <col min="53" max="53" width="9.7109375" customWidth="1"/>
+    <col min="56" max="56" width="11.42578125" customWidth="1"/>
+    <col min="57" max="57" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -796,70 +796,70 @@
         <v>36</v>
       </c>
       <c r="AM1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43936</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43937</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43938</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43939</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43940</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43941</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43942</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43943</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43944</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43945</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43946</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43947</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43948</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43949</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43950</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43951</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43952</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43953</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43954</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43955</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43956</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43957</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43958</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43959</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43960</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43961</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43962</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43963</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43964</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43965</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43966</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43967</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43968</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43969</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43970</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43971</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43972</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43973</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43974</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43975</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43976</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43977</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43978</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43979</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43980</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43981</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43982</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43983</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43984</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43985</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43986</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43987</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43988</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43989</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43990</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43991</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43992</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43993</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43994</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43995</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43996</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43997</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43998</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43999</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44000</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44001</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44002</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44003</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44004</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44005</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44006</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44007</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44008</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44009</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44010</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44011</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44012</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44013</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44014</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44015</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44016</v>
       </c>
@@ -15358,7 +15358,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44017</v>
       </c>
@@ -15537,7 +15537,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44018</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44019</v>
       </c>
@@ -15895,7 +15895,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44020</v>
       </c>
@@ -16074,7 +16074,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44021</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44022</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44023</v>
       </c>
@@ -16611,7 +16611,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="90" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44024</v>
       </c>
@@ -16790,7 +16790,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44025</v>
       </c>
@@ -16969,7 +16969,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44026</v>
       </c>
@@ -17148,7 +17148,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="93" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44027</v>
       </c>
@@ -17327,7 +17327,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="94" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44028</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44029</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="96" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44030</v>
       </c>
@@ -17864,7 +17864,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44031</v>
       </c>
@@ -18043,7 +18043,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="98" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44032</v>
       </c>
@@ -18222,7 +18222,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="99" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44033</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44034</v>
       </c>
@@ -18580,7 +18580,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="101" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44035</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44036</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="103" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44037</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="104" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44038</v>
       </c>
@@ -19296,7 +19296,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="105" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44039</v>
       </c>
@@ -19475,7 +19475,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="106" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44040</v>
       </c>
@@ -19654,7 +19654,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="107" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44041</v>
       </c>
@@ -19833,7 +19833,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="108" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44042</v>
       </c>
@@ -20012,7 +20012,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="109" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44043</v>
       </c>
